--- a/Data/Data_abstraction_Reviewer2.xlsx
+++ b/Data/Data_abstraction_Reviewer2.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cliu369\Box Sync\5.Literature\1.Social contact patterns Lit Review 2020\0_2020rapidreview\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cliu369\OneDrive - Emory University\Documents\Research\review_socialcontact_covid19\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500F3EBC-5586-4012-9E1F-B524641E38C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{500F3EBC-5586-4012-9E1F-B524641E38C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{883B3F7E-1751-4F67-9516-E08330EE5207}"/>
   <bookViews>
     <workbookView xWindow="-29240" yWindow="460" windowWidth="27480" windowHeight="21140" xr2:uid="{9FFD8DB2-24D5-4E46-81DC-8E39251318AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Study characteristics" sheetId="1" r:id="rId1"/>
-    <sheet name="Data abstraction" sheetId="2" r:id="rId2"/>
+    <sheet name="Excluded" sheetId="3" r:id="rId2"/>
+    <sheet name="Data abstraction" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Excluded!$A$1:$E$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Study characteristics'!$A$1:$L$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -24,20 +26,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="339">
   <si>
     <t>SN</t>
   </si>
@@ -630,9 +624,6 @@
     <t>exclude</t>
   </si>
   <si>
-    <t>contacts estimated by ket informants (educators), not participants themselves</t>
-  </si>
-  <si>
     <t>conversation at 1 meter for five minutes or more</t>
   </si>
   <si>
@@ -732,9 +723,6 @@
     <t>survey n=298, diaries n=42102</t>
   </si>
   <si>
-    <t>contacts without physical presence included</t>
-  </si>
-  <si>
     <t>group 1: participants who had been in government mandated quarantine, group 2: participants who had never quarantined</t>
   </si>
   <si>
@@ -762,9 +750,6 @@
     <t>Nepal</t>
   </si>
   <si>
-    <t>brief only, no contact survey conducted</t>
-  </si>
-  <si>
     <t>no empirical data</t>
   </si>
   <si>
@@ -786,9 +771,6 @@
     <t>part of larger cohort study</t>
   </si>
   <si>
-    <t>no empirical data for number of contacts</t>
-  </si>
-  <si>
     <t>September 2017-December 2018</t>
   </si>
   <si>
@@ -801,9 +783,6 @@
     <t>general population</t>
   </si>
   <si>
-    <t>contact data not from COVID lockdown period</t>
-  </si>
-  <si>
     <t>Italy, Spain, France</t>
   </si>
   <si>
@@ -816,9 +795,6 @@
     <t>physical contacts are face-to-face, non-physical contacts via mobile phones</t>
   </si>
   <si>
-    <t>focus on non-physical/virtual contacts</t>
-  </si>
-  <si>
     <t>April 10-April 28 2020</t>
   </si>
   <si>
@@ -858,15 +834,9 @@
     <t>contact diary filled out by parents/guardians</t>
   </si>
   <si>
-    <t>data not from lockdown period, responses from key informants</t>
-  </si>
-  <si>
     <t>Yabe et al</t>
   </si>
   <si>
-    <t>mobility/sensor data only</t>
-  </si>
-  <si>
     <t>Japan</t>
   </si>
   <si>
@@ -879,9 +849,6 @@
     <t>Brooks-Pollock et al</t>
   </si>
   <si>
-    <t>no empirical data, uses old contact survey to model</t>
-  </si>
-  <si>
     <t>Social distancing and transmission-reducing practices during the 2019 coronavirus disease and 2015 Middle East Respiratory Syndrome coronavirus outbreaks in Korea</t>
   </si>
   <si>
@@ -909,9 +876,6 @@
     <t>March 28-April 2, 2020</t>
   </si>
   <si>
-    <t>does not quantify social contacts</t>
-  </si>
-  <si>
     <t>Close encounters on the verge of a pandemic: the role of social contacts on the spread and mortality of COVID-19</t>
   </si>
   <si>
@@ -921,18 +885,12 @@
     <t>"face to face" daily social contacts</t>
   </si>
   <si>
-    <t>no empirical data, uses EQLS to model</t>
-  </si>
-  <si>
     <t>Close encounters between infants and household members measured through wearable proximity sensors</t>
   </si>
   <si>
     <t>Ozella et al</t>
   </si>
   <si>
-    <t>sensor data only</t>
-  </si>
-  <si>
     <t>infants</t>
   </si>
   <si>
@@ -954,9 +912,6 @@
     <t>van Leeuwen et al</t>
   </si>
   <si>
-    <t>no empirical, uses POLYMOD to synthesize matrices</t>
-  </si>
-  <si>
     <t>Trend change of transmission route of COVID-19 related symptoms in Japan</t>
   </si>
   <si>
@@ -1005,18 +960,12 @@
     <t>Manzo et al</t>
   </si>
   <si>
-    <t>no empirical data, uses COMES-F to model</t>
-  </si>
-  <si>
     <t>A Contact Network-Based Approach for Online Planning of Containment Measures for COVID-19</t>
   </si>
   <si>
     <t>Thomaz et al</t>
   </si>
   <si>
-    <t>no emirical data, uses 2017 survey to model</t>
-  </si>
-  <si>
     <t>Analyzing the demographic, spatial, and temporal factors influencing social contact patterns in US and implications for infectious disease spread</t>
   </si>
   <si>
@@ -1029,9 +978,6 @@
     <t>Golding et al</t>
   </si>
   <si>
-    <t>include?</t>
-  </si>
-  <si>
     <t>Australia</t>
   </si>
   <si>
@@ -1042,13 +988,73 @@
   </si>
   <si>
     <t>face to face conversation of at least three words or any form of physical contact such as a handshake</t>
+  </si>
+  <si>
+    <t>Only contact data from pre-COVID-19</t>
+  </si>
+  <si>
+    <t>Did not quantify in-person contacts during COVID-19 pandemic</t>
+  </si>
+  <si>
+    <t>Quantified all interpersonal contacts including virtual</t>
+  </si>
+  <si>
+    <t>Study setting specific to school-children</t>
+  </si>
+  <si>
+    <t>Social relationships and depression during the COVID-19 lockdown: longitudinal analysis of the COVID-19 social study</t>
+  </si>
+  <si>
+    <t>Sommerlad et al</t>
+  </si>
+  <si>
+    <t>Multiple</t>
+  </si>
+  <si>
+    <t>Social mixing and risk exposure for SARS-CoV-2  infections in elderly persons</t>
+  </si>
+  <si>
+    <t>Haag et al</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Study not conducted during COVID-19</t>
+  </si>
+  <si>
+    <t>Reason for exclusion</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Study used pre-COVID-19 social contact data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study included survey items that qualitatively assessed behavior change and changes in contact but did not explicitly quantify number of contacts per person per day </t>
+  </si>
+  <si>
+    <t>Study did not collect empirical data</t>
+  </si>
+  <si>
+    <t>Study quantified all interpersonal contact including non-physical virtual and phone contacts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study focused on effect of interpersonal contact including non-physical virtual and phone contacts. </t>
+  </si>
+  <si>
+    <t>Study does not explicitly quantify number of contacts per person per day during COVID-19</t>
+  </si>
+  <si>
+    <t>Study used mobility data during COVID-19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1058,6 +1064,21 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1089,7 +1110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1100,6 +1121,28 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1414,17 +1457,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6412F8D2-B189-460E-A9D6-0CD1217AE67F}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="43.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.1796875" style="4" customWidth="1"/>
     <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.81640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.81640625" style="1" customWidth="1"/>
@@ -1441,7 +1483,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1475,7 +1517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1510,7 +1552,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1545,7 +1587,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1580,7 +1622,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1615,27 +1657,30 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>122</v>
+        <v>196</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>168</v>
+        <v>252</v>
+      </c>
+      <c r="H6">
+        <v>4207</v>
       </c>
       <c r="I6" t="s">
         <v>108</v>
@@ -1644,13 +1689,13 @@
         <v>134</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>167</v>
+        <v>251</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="58" hidden="1" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1673,7 +1718,7 @@
         <v>174</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J7" t="s">
         <v>134</v>
@@ -1685,7 +1730,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1720,7 +1765,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1755,45 +1800,27 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>270</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>271</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>196</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>197</v>
+        <v>320</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J10" t="s">
-        <v>195</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1810,25 +1837,25 @@
         <v>36</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>182</v>
       </c>
       <c r="K11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1842,28 +1869,28 @@
         <v>122</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>182</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1880,278 +1907,287 @@
         <v>39</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>182</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>32</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>303</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>91</v>
+        <v>304</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>196</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>231</v>
+        <v>320</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>227</v>
+        <v>305</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>230</v>
+        <v>301</v>
+      </c>
+      <c r="H14">
+        <v>3013</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="116" x14ac:dyDescent="0.35">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>27</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>93</v>
+        <v>282</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>196</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>249</v>
+        <v>320</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>194</v>
+        <v>58</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>94</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>311</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>95</v>
+        <v>312</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>196</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>242</v>
+        <v>320</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>96</v>
+        <v>30</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>97</v>
+        <v>294</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>196</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>241</v>
+        <v>320</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H17">
+        <v>121375</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>98</v>
+        <v>13</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>196</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>321</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>100</v>
+        <v>36</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>313</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>101</v>
+        <v>314</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>196</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>254</v>
+        <v>320</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>25</v>
+        <v>315</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>253</v>
+        <v>317</v>
       </c>
       <c r="H19">
-        <v>36155</v>
-      </c>
-      <c r="I19" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="I19" t="s">
         <v>108</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>252</v>
+      <c r="J19" t="s">
+        <v>134</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>250</v>
+        <v>316</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>251</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>102</v>
+        <v>5</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>196</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>239</v>
+        <v>322</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H20">
-        <v>71612</v>
+        <v>166</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="I20" t="s">
         <v>108</v>
       </c>
       <c r="J20" t="s">
-        <v>235</v>
+        <v>134</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>236</v>
+        <v>167</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>238</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>104</v>
+        <v>25</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>272</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>105</v>
+        <v>273</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>196</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>259</v>
+        <v>320</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="H21">
-        <v>4207</v>
+        <v>277</v>
+      </c>
+      <c r="H21" t="s">
+        <v>276</v>
       </c>
       <c r="I21" t="s">
-        <v>108</v>
+        <v>274</v>
       </c>
       <c r="J21" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2168,7 +2204,7 @@
         <v>50</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H22">
         <v>42036</v>
@@ -2180,451 +2216,959 @@
         <v>134</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>267</v>
+        <v>18</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>266</v>
+        <v>101</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>196</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>273</v>
+        <v>320</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>270</v>
+        <v>25</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="H23">
-        <v>30</v>
+        <v>36155</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>108</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>277</v>
+        <v>33</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>307</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>196</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>278</v>
+        <v>22</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>196</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>280</v>
+        <v>329</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>25</v>
+        <v>264</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H25">
+        <v>30</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>281</v>
+        <v>26</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>196</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>270</v>
+        <v>57</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="H26" t="s">
-        <v>285</v>
-      </c>
-      <c r="I26" t="s">
-        <v>283</v>
-      </c>
-      <c r="J26" t="s">
-        <v>182</v>
+        <v>277</v>
+      </c>
+      <c r="H26">
+        <v>156614</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>287</v>
+        <v>28</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>284</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>196</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="H27">
-        <v>156614</v>
+      <c r="H27" t="s">
+        <v>290</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>108</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>134</v>
+        <v>289</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>288</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>291</v>
+        <v>19</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>292</v>
+        <v>103</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>196</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>294</v>
+        <v>237</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>58</v>
+        <v>232</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H28">
+        <v>71612</v>
+      </c>
+      <c r="I28" t="s">
+        <v>108</v>
+      </c>
+      <c r="J28" t="s">
+        <v>233</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="116" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>295</v>
+        <v>14</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>296</v>
+        <v>93</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>196</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="H29" t="s">
-        <v>302</v>
+        <v>243</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>108</v>
+        <v>245</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>303</v>
+        <v>15</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>304</v>
+        <v>95</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>196</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>306</v>
+        <v>16</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>307</v>
+        <v>97</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>196</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="H31">
-        <v>121375</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>310</v>
+        <v>9</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>311</v>
+        <v>33</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>196</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>312</v>
+        <v>25</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="H32">
-        <v>45161</v>
-      </c>
-      <c r="I32" t="s">
+        <v>193</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>108</v>
       </c>
       <c r="J32" t="s">
-        <v>134</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>313</v>
+        <v>195</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>316</v>
+        <v>31</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>297</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>196</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="H33">
-        <v>3013</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>182</v>
+        <v>45161</v>
+      </c>
+      <c r="I33" t="s">
+        <v>108</v>
+      </c>
+      <c r="J33" t="s">
+        <v>134</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>300</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>320</v>
+        <v>34</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>309</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>196</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>319</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>323</v>
+        <v>29</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>291</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>196</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>326</v>
+        <v>17</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>327</v>
+        <v>99</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>196</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>254</v>
+        <v>320</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>23</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="B38" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="B39" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B84AC43-2D09-4909-88B7-9F60613AF655}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="46.6328125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="23.08984375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="29.90625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="52" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="65" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="7" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H37">
-        <v>732</v>
-      </c>
-      <c r="I37" t="s">
-        <v>108</v>
-      </c>
-      <c r="J37" t="s">
-        <v>134</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>334</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L37" xr:uid="{292B03E1-D108-4843-AEEB-973EC493CA32}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="exclude"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E26" xr:uid="{F4806974-90A9-4CB4-BDE0-66320CBBE058}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF324F2D-979A-4414-9765-83541D530006}">
   <dimension ref="A1:AA24"/>
   <sheetViews>
@@ -3455,7 +3999,7 @@
         <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F18">
         <v>602</v>
@@ -3473,13 +4017,13 @@
         <v>0.86099999999999999</v>
       </c>
       <c r="K18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>121</v>
       </c>
       <c r="M18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N18">
         <v>602</v>
@@ -3514,13 +4058,13 @@
         <v>87.8</v>
       </c>
       <c r="K19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>121</v>
       </c>
       <c r="M19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N19">
         <v>965</v>
@@ -3547,13 +4091,13 @@
         <v>0.79</v>
       </c>
       <c r="Y19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Z19">
         <v>0.38</v>
       </c>
       <c r="AA19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="29" x14ac:dyDescent="0.35">
@@ -3579,13 +4123,13 @@
         <v>86.3</v>
       </c>
       <c r="K20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>121</v>
       </c>
       <c r="M20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N20">
         <v>636</v>
@@ -3612,13 +4156,13 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="Y20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Z20">
         <v>0.46</v>
       </c>
       <c r="AA20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
@@ -3644,13 +4188,13 @@
         <v>72.2</v>
       </c>
       <c r="K21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s">
         <v>121</v>
       </c>
       <c r="M21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N21">
         <v>741</v>
@@ -3677,13 +4221,13 @@
         <v>0.71</v>
       </c>
       <c r="Y21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Z21">
         <v>0.43</v>
       </c>
       <c r="AA21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
@@ -3709,13 +4253,13 @@
         <v>76.8</v>
       </c>
       <c r="K22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s">
         <v>121</v>
       </c>
       <c r="M22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N22">
         <v>738</v>
@@ -3742,13 +4286,13 @@
         <v>0.6</v>
       </c>
       <c r="Y22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z22">
         <v>0.45</v>
       </c>
       <c r="AA22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="29" x14ac:dyDescent="0.35">
@@ -3756,7 +4300,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>107</v>
@@ -3771,13 +4315,13 @@
         <v>121</v>
       </c>
       <c r="M23" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="N23">
         <v>2033</v>
       </c>
       <c r="O23" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="S23">
         <v>2</v>
@@ -3791,13 +4335,13 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="D24" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="F24">
         <v>732</v>
